--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Raf3c30fc8d7a452a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R20b9491a57c74858"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R20b9491a57c74858"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R9dd05a9840b8422f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R9dd05a9840b8422f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5facfea318d8470d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5facfea318d8470d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R21e9843e3a7d43a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R21e9843e3a7d43a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R52b7a05b882b41af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R52b7a05b882b41af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R84c2d71d45094341"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R84c2d71d45094341"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R91b61f1de0524e1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R91b61f1de0524e1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R68e6f286e86648a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R68e6f286e86648a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R27bcf474efcd4fc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R27bcf474efcd4fc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R683d19c505d14016"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R683d19c505d14016"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R75acec16d4864fcd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,36 +30,36 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R75acec16d4864fcd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R912c8da5a4eb42df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,36 +30,36 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/028_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R912c8da5a4eb42df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rba7191f1ceec4b6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
